--- a/dida/code/doc/我的日历留存.xlsx
+++ b/dida/code/doc/我的日历留存.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13110" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13110" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,8 +207,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.2395013123359633E-3"/>
-                  <c:y val="-0.64601086322543033"/>
+                  <c:x val="7.2395013123359641E-3"/>
+                  <c:y val="-0.64601086322543044"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -416,11 +416,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="75932032"/>
-        <c:axId val="75933568"/>
+        <c:axId val="91857664"/>
+        <c:axId val="91859200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75932032"/>
+        <c:axId val="91857664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,12 +456,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75933568"/>
+        <c:crossAx val="91859200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75933568"/>
+        <c:axId val="91859200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -511,7 +511,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75932032"/>
+        <c:crossAx val="91857664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -581,7 +581,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -636,8 +636,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.2395013123359633E-3"/>
-                  <c:y val="-0.64601086322543033"/>
+                  <c:x val="7.2395013123359641E-3"/>
+                  <c:y val="-0.64601086322543044"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -842,11 +842,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="93501312"/>
-        <c:axId val="93502848"/>
+        <c:axId val="93231360"/>
+        <c:axId val="93245440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93501312"/>
+        <c:axId val="93231360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,12 +882,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93502848"/>
+        <c:crossAx val="93245440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93502848"/>
+        <c:axId val="93245440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -937,7 +937,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93501312"/>
+        <c:crossAx val="93231360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1007,7 +1007,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1062,8 +1062,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.2395013123359633E-3"/>
-                  <c:y val="-0.64601086322543033"/>
+                  <c:x val="7.2395013123359641E-3"/>
+                  <c:y val="-0.64601086322543044"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1244,11 +1244,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="96419840"/>
-        <c:axId val="96421376"/>
+        <c:axId val="96088448"/>
+        <c:axId val="96089984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96419840"/>
+        <c:axId val="96088448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,12 +1284,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96421376"/>
+        <c:crossAx val="96089984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96421376"/>
+        <c:axId val="96089984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1339,7 +1339,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96419840"/>
+        <c:crossAx val="96088448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1409,7 +1409,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1464,8 +1464,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.2395013123359633E-3"/>
-                  <c:y val="-0.64601086322543033"/>
+                  <c:x val="7.2395013123359641E-3"/>
+                  <c:y val="-0.64601086322543044"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1643,11 +1643,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="96462720"/>
-        <c:axId val="96464256"/>
+        <c:axId val="96131328"/>
+        <c:axId val="93782016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96462720"/>
+        <c:axId val="96131328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,12 +1683,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96464256"/>
+        <c:crossAx val="93782016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96464256"/>
+        <c:axId val="93782016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1738,7 +1738,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96462720"/>
+        <c:crossAx val="96131328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1808,7 +1808,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1863,8 +1863,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.2395013123359633E-3"/>
-                  <c:y val="-0.64601086322543033"/>
+                  <c:x val="7.2395013123359641E-3"/>
+                  <c:y val="-0.64601086322543044"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2018,11 +2018,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="95767936"/>
-        <c:axId val="95794304"/>
+        <c:axId val="93827072"/>
+        <c:axId val="93828608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95767936"/>
+        <c:axId val="93827072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,12 +2058,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95794304"/>
+        <c:crossAx val="93828608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95794304"/>
+        <c:axId val="93828608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2113,7 +2113,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95767936"/>
+        <c:crossAx val="93827072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2183,7 +2183,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2238,8 +2238,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.2395013123359633E-3"/>
-                  <c:y val="-0.64601086322543033"/>
+                  <c:x val="7.2395013123359641E-3"/>
+                  <c:y val="-0.64601086322543044"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2390,11 +2390,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="97662080"/>
-        <c:axId val="97663616"/>
+        <c:axId val="96220672"/>
+        <c:axId val="96222208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97662080"/>
+        <c:axId val="96220672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,12 +2430,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97663616"/>
+        <c:crossAx val="96222208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97663616"/>
+        <c:axId val="96222208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2485,7 +2485,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97662080"/>
+        <c:crossAx val="96220672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2555,7 +2555,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2610,8 +2610,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.2395013123359633E-3"/>
-                  <c:y val="-0.64601086322543033"/>
+                  <c:x val="7.2395013123359641E-3"/>
+                  <c:y val="-0.64601086322543044"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2732,11 +2732,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="97684096"/>
-        <c:axId val="97710464"/>
+        <c:axId val="96242688"/>
+        <c:axId val="96269056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97684096"/>
+        <c:axId val="96242688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,12 +2772,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97710464"/>
+        <c:crossAx val="96269056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97710464"/>
+        <c:axId val="96269056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2827,7 +2827,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97684096"/>
+        <c:crossAx val="96242688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2897,7 +2897,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2952,8 +2952,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.2395013123359633E-3"/>
-                  <c:y val="-0.64601086322543033"/>
+                  <c:x val="7.2395013123359641E-3"/>
+                  <c:y val="-0.64601086322543044"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3071,11 +3071,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="96559488"/>
-        <c:axId val="96561024"/>
+        <c:axId val="96166656"/>
+        <c:axId val="96168192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96559488"/>
+        <c:axId val="96166656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3111,12 +3111,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96561024"/>
+        <c:crossAx val="96168192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96561024"/>
+        <c:axId val="96168192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -3166,7 +3166,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96559488"/>
+        <c:crossAx val="96166656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3236,7 +3236,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -29125,7 +29125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CT88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ38" workbookViewId="0">
+    <sheetView topLeftCell="CI1" workbookViewId="0">
       <selection activeCell="AZ39" sqref="AZ39"/>
     </sheetView>
   </sheetViews>
@@ -41614,15 +41614,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:CT87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
+      <selection activeCell="CU1" sqref="CU1:CW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:98">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -41647,20 +41651,296 @@
       <c r="H1">
         <v>4</v>
       </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <v>9</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+      <c r="O1">
+        <v>11</v>
+      </c>
+      <c r="P1">
+        <v>12</v>
+      </c>
+      <c r="Q1">
+        <v>13</v>
+      </c>
+      <c r="R1">
+        <v>14</v>
+      </c>
+      <c r="S1">
+        <v>15</v>
+      </c>
+      <c r="T1">
+        <v>16</v>
+      </c>
+      <c r="U1">
+        <v>17</v>
+      </c>
+      <c r="V1">
+        <v>18</v>
+      </c>
+      <c r="W1">
+        <v>19</v>
+      </c>
+      <c r="X1">
+        <v>20</v>
+      </c>
+      <c r="Y1">
+        <v>21</v>
+      </c>
+      <c r="Z1">
+        <v>22</v>
+      </c>
+      <c r="AA1">
+        <v>23</v>
+      </c>
+      <c r="AB1">
+        <v>24</v>
+      </c>
+      <c r="AC1">
+        <v>25</v>
+      </c>
+      <c r="AD1">
+        <v>26</v>
+      </c>
+      <c r="AE1">
+        <v>27</v>
+      </c>
+      <c r="AF1">
+        <v>28</v>
+      </c>
+      <c r="AG1">
+        <v>29</v>
+      </c>
+      <c r="AH1">
+        <v>30</v>
+      </c>
+      <c r="AI1">
+        <v>31</v>
+      </c>
+      <c r="AJ1">
+        <v>32</v>
+      </c>
+      <c r="AK1">
+        <v>33</v>
+      </c>
+      <c r="AL1">
+        <v>34</v>
+      </c>
+      <c r="AM1">
+        <v>35</v>
+      </c>
+      <c r="AN1">
+        <v>36</v>
+      </c>
+      <c r="AO1">
+        <v>37</v>
+      </c>
+      <c r="AP1">
+        <v>38</v>
+      </c>
+      <c r="AQ1">
+        <v>39</v>
+      </c>
+      <c r="AR1">
+        <v>40</v>
+      </c>
+      <c r="AS1">
+        <v>41</v>
+      </c>
+      <c r="AT1">
+        <v>42</v>
+      </c>
+      <c r="AU1">
+        <v>43</v>
+      </c>
+      <c r="AV1">
+        <v>44</v>
+      </c>
+      <c r="AW1">
+        <v>45</v>
+      </c>
+      <c r="AX1">
+        <v>46</v>
+      </c>
+      <c r="AY1">
+        <v>47</v>
+      </c>
+      <c r="AZ1">
+        <v>48</v>
+      </c>
+      <c r="BA1">
+        <v>49</v>
+      </c>
+      <c r="BB1">
+        <v>50</v>
+      </c>
+      <c r="BC1">
+        <v>51</v>
+      </c>
+      <c r="BD1">
+        <v>52</v>
+      </c>
+      <c r="BE1">
+        <v>53</v>
+      </c>
+      <c r="BF1">
+        <v>54</v>
+      </c>
+      <c r="BG1">
+        <v>55</v>
+      </c>
+      <c r="BH1">
+        <v>56</v>
+      </c>
+      <c r="BI1">
+        <v>57</v>
+      </c>
+      <c r="BJ1">
+        <v>58</v>
+      </c>
+      <c r="BK1">
+        <v>59</v>
+      </c>
+      <c r="BL1">
+        <v>60</v>
+      </c>
+      <c r="BM1">
+        <v>61</v>
+      </c>
+      <c r="BN1">
+        <v>62</v>
+      </c>
+      <c r="BO1">
+        <v>63</v>
+      </c>
+      <c r="BP1">
+        <v>64</v>
+      </c>
+      <c r="BQ1">
+        <v>65</v>
+      </c>
+      <c r="BR1">
+        <v>66</v>
+      </c>
+      <c r="BS1">
+        <v>67</v>
+      </c>
+      <c r="BT1">
+        <v>68</v>
+      </c>
+      <c r="BU1">
+        <v>69</v>
+      </c>
+      <c r="BV1">
+        <v>70</v>
+      </c>
+      <c r="BW1">
+        <v>71</v>
+      </c>
+      <c r="BX1">
+        <v>72</v>
+      </c>
+      <c r="BY1">
+        <v>73</v>
+      </c>
+      <c r="BZ1">
+        <v>74</v>
+      </c>
+      <c r="CA1">
+        <v>75</v>
+      </c>
+      <c r="CB1">
+        <v>76</v>
+      </c>
+      <c r="CC1">
+        <v>77</v>
+      </c>
+      <c r="CD1">
+        <v>78</v>
+      </c>
+      <c r="CE1">
+        <v>79</v>
+      </c>
+      <c r="CF1">
+        <v>80</v>
+      </c>
+      <c r="CG1">
+        <v>81</v>
+      </c>
+      <c r="CH1">
+        <v>82</v>
+      </c>
+      <c r="CI1">
+        <v>83</v>
+      </c>
+      <c r="CJ1">
+        <v>84</v>
+      </c>
+      <c r="CK1">
+        <v>85</v>
+      </c>
+      <c r="CL1">
+        <v>86</v>
+      </c>
+      <c r="CM1">
+        <v>87</v>
+      </c>
+      <c r="CN1">
+        <v>88</v>
+      </c>
+      <c r="CO1">
+        <v>89</v>
+      </c>
+      <c r="CP1">
+        <v>90</v>
+      </c>
+      <c r="CQ1">
+        <v>91</v>
+      </c>
+      <c r="CR1">
+        <v>92</v>
+      </c>
+      <c r="CS1">
+        <v>93</v>
+      </c>
+      <c r="CT1">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:98">
       <c r="A2" s="14">
         <v>42705</v>
       </c>
       <c r="B2" s="6">
-        <v>180124</v>
+        <v>180111</v>
+      </c>
+      <c r="C2" s="6">
+        <v>31677</v>
+      </c>
+      <c r="D2" s="6">
+        <v>30906</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:98">
       <c r="A3" s="14">
         <v>42706</v>
       </c>
@@ -41678,418 +41958,1181 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:98">
       <c r="A4" s="14">
         <v>42707</v>
       </c>
+      <c r="B4" s="6">
+        <v>179489</v>
+      </c>
+      <c r="C4" s="6">
+        <v>29758</v>
+      </c>
+      <c r="D4" s="6">
+        <v>29010</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:98">
       <c r="A5" s="14">
         <v>42708</v>
       </c>
+      <c r="B5" s="6">
+        <v>186529</v>
+      </c>
+      <c r="C5" s="6">
+        <v>32327</v>
+      </c>
+      <c r="D5" s="6">
+        <v>31532</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:98">
       <c r="A6" s="14">
         <v>42709</v>
       </c>
+      <c r="B6" s="6">
+        <v>185860</v>
+      </c>
+      <c r="C6" s="6">
+        <v>36969</v>
+      </c>
+      <c r="D6" s="6">
+        <v>36146</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:98">
       <c r="A7" s="14">
         <v>42710</v>
       </c>
+      <c r="B7" s="6">
+        <v>183560</v>
+      </c>
+      <c r="C7" s="6">
+        <v>34925</v>
+      </c>
+      <c r="D7" s="6">
+        <v>34119</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:98">
       <c r="A8" s="14">
         <v>42711</v>
       </c>
+      <c r="B8" s="6">
+        <v>195406</v>
+      </c>
+      <c r="C8" s="6">
+        <v>30035</v>
+      </c>
+      <c r="D8" s="6">
+        <v>29333</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:98">
       <c r="A9" s="14">
         <v>42712</v>
       </c>
+      <c r="B9" s="6">
+        <v>195110</v>
+      </c>
+      <c r="C9" s="6">
+        <v>30917</v>
+      </c>
+      <c r="D9" s="6">
+        <v>30243</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:98">
       <c r="A10" s="14">
         <v>42713</v>
       </c>
+      <c r="B10" s="6">
+        <v>192917</v>
+      </c>
+      <c r="C10" s="6">
+        <v>30142</v>
+      </c>
+      <c r="D10" s="6">
+        <v>29376</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:98">
       <c r="A11" s="14">
         <v>42714</v>
       </c>
+      <c r="B11" s="6">
+        <v>200374</v>
+      </c>
+      <c r="C11" s="6">
+        <v>30609</v>
+      </c>
+      <c r="D11" s="6">
+        <v>29953</v>
+      </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:98">
       <c r="A12" s="14">
         <v>42715</v>
       </c>
+      <c r="B12" s="6">
+        <v>193961</v>
+      </c>
+      <c r="C12" s="6">
+        <v>28459</v>
+      </c>
+      <c r="D12" s="6">
+        <v>27719</v>
+      </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:98">
       <c r="A13" s="14">
         <v>42716</v>
       </c>
+      <c r="B13" s="6">
+        <v>186520</v>
+      </c>
+      <c r="C13" s="6">
+        <v>31419</v>
+      </c>
+      <c r="D13" s="6">
+        <v>30599</v>
+      </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:98">
       <c r="A14" s="14">
         <v>42717</v>
       </c>
+      <c r="B14" s="6">
+        <v>188105</v>
+      </c>
+      <c r="C14" s="6">
+        <v>32566</v>
+      </c>
+      <c r="D14" s="6">
+        <v>31822</v>
+      </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:98">
       <c r="A15" s="14">
         <v>42718</v>
       </c>
+      <c r="B15" s="6">
+        <v>199699</v>
+      </c>
+      <c r="C15" s="6">
+        <v>29025</v>
+      </c>
+      <c r="D15" s="6">
+        <v>28476</v>
+      </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:98">
       <c r="A16" s="14">
         <v>42719</v>
       </c>
+      <c r="B16" s="6">
+        <v>190213</v>
+      </c>
+      <c r="C16" s="6">
+        <v>24768</v>
+      </c>
+      <c r="D16" s="6">
+        <v>24152</v>
+      </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:4">
       <c r="A17" s="14">
         <v>42720</v>
       </c>
+      <c r="B17" s="6">
+        <v>210657</v>
+      </c>
+      <c r="C17" s="6">
+        <v>48120</v>
+      </c>
+      <c r="D17" s="6">
+        <v>47143</v>
+      </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:4">
       <c r="A18" s="14">
         <v>42721</v>
       </c>
+      <c r="B18" s="6">
+        <v>215883</v>
+      </c>
+      <c r="C18" s="6">
+        <v>43645</v>
+      </c>
+      <c r="D18" s="6">
+        <v>42752</v>
+      </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:4">
       <c r="A19" s="14">
         <v>42722</v>
       </c>
+      <c r="B19" s="6">
+        <v>221805</v>
+      </c>
+      <c r="C19" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D19" s="6">
+        <v>41270</v>
+      </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:4">
       <c r="A20" s="14">
         <v>42723</v>
       </c>
+      <c r="B20" s="6">
+        <v>211168</v>
+      </c>
+      <c r="C20" s="6">
+        <v>41850</v>
+      </c>
+      <c r="D20" s="6">
+        <v>41025</v>
+      </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:4">
       <c r="A21" s="14">
         <v>42724</v>
       </c>
+      <c r="B21" s="6">
+        <v>214470</v>
+      </c>
+      <c r="C21" s="6">
+        <v>41422</v>
+      </c>
+      <c r="D21" s="6">
+        <v>40619</v>
+      </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:4">
       <c r="A22" s="14">
         <v>42725</v>
       </c>
+      <c r="B22" s="6">
+        <v>230209</v>
+      </c>
+      <c r="C22" s="6">
+        <v>37708</v>
+      </c>
+      <c r="D22" s="6">
+        <v>36997</v>
+      </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:4">
       <c r="A23" s="14">
         <v>42726</v>
       </c>
+      <c r="B23" s="6">
+        <v>228230</v>
+      </c>
+      <c r="C23" s="6">
+        <v>35037</v>
+      </c>
+      <c r="D23" s="6">
+        <v>34375</v>
+      </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4">
       <c r="A24" s="14">
         <v>42727</v>
       </c>
+      <c r="B24" s="6">
+        <v>223710</v>
+      </c>
+      <c r="C24" s="6">
+        <v>28398</v>
+      </c>
+      <c r="D24" s="6">
+        <v>27881</v>
+      </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:4">
       <c r="A25" s="14">
         <v>42728</v>
       </c>
+      <c r="B25" s="6">
+        <v>217998</v>
+      </c>
+      <c r="C25" s="6">
+        <v>28215</v>
+      </c>
+      <c r="D25" s="6">
+        <v>27622</v>
+      </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:4">
       <c r="A26" s="14">
         <v>42729</v>
       </c>
+      <c r="B26" s="6">
+        <v>217771</v>
+      </c>
+      <c r="C26" s="6">
+        <v>28578</v>
+      </c>
+      <c r="D26" s="6">
+        <v>28034</v>
+      </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:4">
       <c r="A27" s="14">
         <v>42730</v>
       </c>
+      <c r="B27" s="6">
+        <v>201009</v>
+      </c>
+      <c r="C27" s="6">
+        <v>30629</v>
+      </c>
+      <c r="D27" s="6">
+        <v>29999</v>
+      </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:4">
       <c r="A28" s="14">
         <v>42731</v>
       </c>
+      <c r="B28" s="6">
+        <v>201175</v>
+      </c>
+      <c r="C28" s="6">
+        <v>32358</v>
+      </c>
+      <c r="D28" s="6">
+        <v>31702</v>
+      </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:4">
       <c r="A29" s="14">
         <v>42732</v>
       </c>
+      <c r="B29" s="6">
+        <v>215580</v>
+      </c>
+      <c r="C29" s="6">
+        <v>28277</v>
+      </c>
+      <c r="D29" s="6">
+        <v>27743</v>
+      </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:4">
       <c r="A30" s="14">
         <v>42733</v>
       </c>
+      <c r="B30" s="6">
+        <v>214648</v>
+      </c>
+      <c r="C30" s="6">
+        <v>28723</v>
+      </c>
+      <c r="D30" s="6">
+        <v>28238</v>
+      </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:4">
       <c r="A31" s="14">
         <v>42734</v>
       </c>
+      <c r="B31" s="6">
+        <v>209472</v>
+      </c>
+      <c r="C31" s="6">
+        <v>24952</v>
+      </c>
+      <c r="D31" s="6">
+        <v>24459</v>
+      </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:4">
       <c r="A32" s="14">
         <v>42735</v>
       </c>
+      <c r="B32" s="6">
+        <v>210016</v>
+      </c>
+      <c r="C32" s="6">
+        <v>25416</v>
+      </c>
+      <c r="D32" s="6">
+        <v>24919</v>
+      </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:4">
       <c r="A33" s="14">
         <v>42736</v>
       </c>
+      <c r="B33" s="6">
+        <v>182333</v>
+      </c>
+      <c r="C33" s="6">
+        <v>28013</v>
+      </c>
+      <c r="D33" s="6">
+        <v>27453</v>
+      </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:4">
       <c r="A34" s="14">
         <v>42737</v>
       </c>
+      <c r="B34" s="6">
+        <v>181918</v>
+      </c>
+      <c r="C34" s="6">
+        <v>26877</v>
+      </c>
+      <c r="D34" s="6">
+        <v>26401</v>
+      </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:4">
       <c r="A35" s="14">
         <v>42738</v>
       </c>
+      <c r="B35" s="6">
+        <v>187382</v>
+      </c>
+      <c r="C35" s="6">
+        <v>27192</v>
+      </c>
+      <c r="D35" s="6">
+        <v>26672</v>
+      </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:4">
       <c r="A36" s="14">
         <v>42739</v>
       </c>
+      <c r="B36" s="6">
+        <v>210353</v>
+      </c>
+      <c r="C36" s="6">
+        <v>27800</v>
+      </c>
+      <c r="D36" s="6">
+        <v>27324</v>
+      </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:4">
       <c r="A37" s="14">
         <v>42740</v>
       </c>
+      <c r="B37" s="6">
+        <v>202002</v>
+      </c>
+      <c r="C37" s="6">
+        <v>21566</v>
+      </c>
+      <c r="D37" s="6">
+        <v>21192</v>
+      </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:4">
       <c r="A38" s="14">
         <v>42741</v>
       </c>
+      <c r="B38" s="6">
+        <v>186760</v>
+      </c>
+      <c r="C38" s="6">
+        <v>11404</v>
+      </c>
+      <c r="D38" s="6">
+        <v>11246</v>
+      </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:4">
       <c r="A39" s="14">
         <v>42742</v>
       </c>
+      <c r="B39" s="6">
+        <v>180220</v>
+      </c>
+      <c r="C39" s="6">
+        <v>10768</v>
+      </c>
+      <c r="D39" s="6">
+        <v>10621</v>
+      </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:4">
       <c r="A40" s="14">
         <v>42743</v>
       </c>
+      <c r="B40" s="6">
+        <v>174365</v>
+      </c>
+      <c r="C40" s="6">
+        <v>10347</v>
+      </c>
+      <c r="D40" s="6">
+        <v>10179</v>
+      </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:4">
       <c r="A41" s="14">
         <v>42744</v>
       </c>
+      <c r="B41" s="6">
+        <v>152491</v>
+      </c>
+      <c r="C41" s="6">
+        <v>9313</v>
+      </c>
+      <c r="D41" s="6">
+        <v>9200</v>
+      </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:4">
       <c r="A42" s="14">
         <v>42745</v>
       </c>
+      <c r="B42" s="6">
+        <v>144378</v>
+      </c>
+      <c r="C42" s="6">
+        <v>4707</v>
+      </c>
+      <c r="D42" s="6">
+        <v>4630</v>
+      </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:4">
       <c r="A43" s="14">
         <v>42746</v>
       </c>
+      <c r="B43" s="6">
+        <v>158865</v>
+      </c>
+      <c r="C43" s="6">
+        <v>5002</v>
+      </c>
+      <c r="D43" s="6">
+        <v>4958</v>
+      </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:4">
       <c r="A44" s="14">
         <v>42747</v>
       </c>
+      <c r="B44" s="6">
+        <v>151025</v>
+      </c>
+      <c r="C44" s="6">
+        <v>4410</v>
+      </c>
+      <c r="D44" s="6">
+        <v>4345</v>
+      </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:4">
       <c r="A45" s="14">
         <v>42748</v>
       </c>
+      <c r="B45" s="6">
+        <v>145183</v>
+      </c>
+      <c r="C45" s="6">
+        <v>4221</v>
+      </c>
+      <c r="D45" s="6">
+        <v>4102</v>
+      </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:4">
       <c r="A46" s="14">
         <v>42749</v>
       </c>
+      <c r="B46" s="6">
+        <v>143082</v>
+      </c>
+      <c r="C46" s="6">
+        <v>4511</v>
+      </c>
+      <c r="D46" s="6">
+        <v>4376</v>
+      </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:4">
       <c r="A47" s="14">
         <v>42750</v>
       </c>
+      <c r="B47" s="6">
+        <v>138074</v>
+      </c>
+      <c r="C47" s="6">
+        <v>4338</v>
+      </c>
+      <c r="D47" s="6">
+        <v>4245</v>
+      </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:4">
       <c r="A48" s="14">
         <v>42751</v>
       </c>
+      <c r="B48" s="6">
+        <v>122185</v>
+      </c>
+      <c r="C48" s="6">
+        <v>4624</v>
+      </c>
+      <c r="D48" s="6">
+        <v>4480</v>
+      </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:4">
       <c r="A49" s="14">
         <v>42752</v>
       </c>
+      <c r="B49" s="6">
+        <v>117186</v>
+      </c>
+      <c r="C49" s="6">
+        <v>4076</v>
+      </c>
+      <c r="D49" s="6">
+        <v>3972</v>
+      </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:4">
       <c r="A50" s="14">
         <v>42753</v>
       </c>
+      <c r="B50" s="6">
+        <v>127674</v>
+      </c>
+      <c r="C50" s="6">
+        <v>3939</v>
+      </c>
+      <c r="D50" s="6">
+        <v>3853</v>
+      </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:4">
       <c r="A51" s="14">
         <v>42754</v>
       </c>
+      <c r="B51" s="6">
+        <v>124938</v>
+      </c>
+      <c r="C51" s="6">
+        <v>3439</v>
+      </c>
+      <c r="D51" s="6">
+        <v>3351</v>
+      </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:4">
       <c r="A52" s="14">
         <v>42755</v>
       </c>
+      <c r="B52" s="6">
+        <v>125985</v>
+      </c>
+      <c r="C52" s="6">
+        <v>4277</v>
+      </c>
+      <c r="D52" s="6">
+        <v>4167</v>
+      </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:4">
       <c r="A53" s="14">
         <v>42756</v>
       </c>
+      <c r="B53" s="6">
+        <v>124691</v>
+      </c>
+      <c r="C53" s="6">
+        <v>5702</v>
+      </c>
+      <c r="D53" s="6">
+        <v>5545</v>
+      </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:4">
       <c r="A54" s="14">
         <v>42757</v>
       </c>
+      <c r="B54" s="6">
+        <v>125054</v>
+      </c>
+      <c r="C54" s="6">
+        <v>5740</v>
+      </c>
+      <c r="D54" s="6">
+        <v>5612</v>
+      </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:4">
       <c r="A55" s="14">
         <v>42758</v>
       </c>
+      <c r="B55" s="6">
+        <v>110273</v>
+      </c>
+      <c r="C55" s="6">
+        <v>5849</v>
+      </c>
+      <c r="D55" s="6">
+        <v>5713</v>
+      </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:4">
       <c r="A56" s="14">
         <v>42759</v>
       </c>
+      <c r="B56" s="6">
+        <v>104687</v>
+      </c>
+      <c r="C56" s="6">
+        <v>5964</v>
+      </c>
+      <c r="D56" s="6">
+        <v>5829</v>
+      </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:4">
       <c r="A57" s="14">
         <v>42760</v>
       </c>
+      <c r="B57" s="6">
+        <v>114967</v>
+      </c>
+      <c r="C57" s="6">
+        <v>5188</v>
+      </c>
+      <c r="D57" s="6">
+        <v>5050</v>
+      </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:4">
       <c r="A58" s="14">
         <v>42761</v>
       </c>
+      <c r="B58" s="6">
+        <v>113076</v>
+      </c>
+      <c r="C58" s="6">
+        <v>5870</v>
+      </c>
+      <c r="D58" s="6">
+        <v>5728</v>
+      </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:4">
       <c r="A59" s="14">
         <v>42762</v>
       </c>
+      <c r="B59" s="6">
+        <v>113101</v>
+      </c>
+      <c r="C59" s="6">
+        <v>7527</v>
+      </c>
+      <c r="D59" s="6">
+        <v>7346</v>
+      </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:4">
       <c r="A60" s="14">
         <v>42763</v>
       </c>
+      <c r="B60" s="6">
+        <v>118035</v>
+      </c>
+      <c r="C60" s="6">
+        <v>12367</v>
+      </c>
+      <c r="D60" s="6">
+        <v>12089</v>
+      </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:4">
       <c r="A61" s="14">
         <v>42764</v>
       </c>
+      <c r="B61" s="6">
+        <v>125514</v>
+      </c>
+      <c r="C61" s="6">
+        <v>19514</v>
+      </c>
+      <c r="D61" s="6">
+        <v>19089</v>
+      </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:4">
       <c r="A62" s="14">
         <v>42765</v>
       </c>
+      <c r="B62" s="6">
+        <v>117348</v>
+      </c>
+      <c r="C62" s="6">
+        <v>19023</v>
+      </c>
+      <c r="D62" s="6">
+        <v>18620</v>
+      </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:4">
       <c r="A63" s="14">
         <v>42766</v>
       </c>
+      <c r="B63" s="6">
+        <v>119765</v>
+      </c>
+      <c r="C63" s="6">
+        <v>20318</v>
+      </c>
+      <c r="D63" s="6">
+        <v>19898</v>
+      </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:4">
       <c r="A64" s="14">
         <v>42767</v>
       </c>
+      <c r="B64" s="6">
+        <v>126060</v>
+      </c>
+      <c r="C64" s="6">
+        <v>17355</v>
+      </c>
+      <c r="D64" s="6">
+        <v>16887</v>
+      </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:4">
       <c r="A65" s="14">
         <v>42768</v>
       </c>
+      <c r="B65" s="6">
+        <v>125151</v>
+      </c>
+      <c r="C65" s="6">
+        <v>17773</v>
+      </c>
+      <c r="D65" s="6">
+        <v>17386</v>
+      </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:4">
       <c r="A66" s="14">
         <v>42769</v>
       </c>
+      <c r="B66" s="6">
+        <v>123695</v>
+      </c>
+      <c r="C66" s="6">
+        <v>18407</v>
+      </c>
+      <c r="D66" s="6">
+        <v>17968</v>
+      </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:4">
       <c r="A67" s="14">
         <v>42770</v>
       </c>
+      <c r="B67" s="6">
+        <v>116734</v>
+      </c>
+      <c r="C67" s="6">
+        <v>17795</v>
+      </c>
+      <c r="D67" s="6">
+        <v>17387</v>
+      </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:4">
       <c r="A68" s="14">
         <v>42771</v>
       </c>
+      <c r="B68" s="6">
+        <v>115547</v>
+      </c>
+      <c r="C68" s="6">
+        <v>17928</v>
+      </c>
+      <c r="D68" s="6">
+        <v>17547</v>
+      </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:4">
       <c r="A69" s="14">
         <v>42772</v>
       </c>
+      <c r="B69" s="6">
+        <v>105440</v>
+      </c>
+      <c r="C69" s="6">
+        <v>16184</v>
+      </c>
+      <c r="D69" s="6">
+        <v>15773</v>
+      </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:4">
       <c r="A70" s="14">
         <v>42773</v>
       </c>
+      <c r="B70" s="6">
+        <v>88615</v>
+      </c>
+      <c r="C70" s="6">
+        <v>13045</v>
+      </c>
+      <c r="D70" s="6">
+        <v>12708</v>
+      </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:4">
       <c r="A71" s="14">
         <v>42774</v>
       </c>
+      <c r="B71" s="6">
+        <v>89610</v>
+      </c>
+      <c r="C71" s="6">
+        <v>15428</v>
+      </c>
+      <c r="D71" s="6">
+        <v>15106</v>
+      </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:4">
       <c r="A72" s="14">
         <v>42775</v>
       </c>
+      <c r="B72" s="6">
+        <v>90457</v>
+      </c>
+      <c r="C72" s="6">
+        <v>16193</v>
+      </c>
+      <c r="D72" s="6">
+        <v>15839</v>
+      </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:4">
       <c r="A73" s="14">
         <v>42776</v>
       </c>
+      <c r="B73" s="6">
+        <v>95384</v>
+      </c>
+      <c r="C73" s="6">
+        <v>17728</v>
+      </c>
+      <c r="D73" s="6">
+        <v>17365</v>
+      </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:4">
       <c r="A74" s="14">
         <v>42777</v>
       </c>
+      <c r="B74" s="6">
+        <v>100613</v>
+      </c>
+      <c r="C74" s="6">
+        <v>17743</v>
+      </c>
+      <c r="D74" s="6">
+        <v>17409</v>
+      </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:4">
       <c r="A75" s="14">
         <v>42778</v>
       </c>
+      <c r="B75" s="6">
+        <v>108051</v>
+      </c>
+      <c r="C75" s="6">
+        <v>20664</v>
+      </c>
+      <c r="D75" s="6">
+        <v>20206</v>
+      </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:4">
       <c r="A76" s="14">
         <v>42779</v>
       </c>
+      <c r="B76" s="6">
+        <v>114741</v>
+      </c>
+      <c r="C76" s="6">
+        <v>20216</v>
+      </c>
+      <c r="D76" s="6">
+        <v>19742</v>
+      </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:4">
       <c r="A77" s="14">
         <v>42780</v>
       </c>
+      <c r="B77" s="6">
+        <v>131385</v>
+      </c>
+      <c r="C77" s="6">
+        <v>22045</v>
+      </c>
+      <c r="D77" s="6">
+        <v>21582</v>
+      </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:4">
       <c r="A78" s="14">
         <v>42781</v>
       </c>
+      <c r="B78" s="6">
+        <v>140588</v>
+      </c>
+      <c r="C78" s="6">
+        <v>22208</v>
+      </c>
+      <c r="D78" s="6">
+        <v>21742</v>
+      </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:4">
       <c r="A79" s="14">
         <v>42782</v>
       </c>
+      <c r="B79" s="6">
+        <v>145196</v>
+      </c>
+      <c r="C79" s="6">
+        <v>22167</v>
+      </c>
+      <c r="D79" s="6">
+        <v>21624</v>
+      </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:4">
       <c r="A80" s="14">
         <v>42783</v>
       </c>
+      <c r="B80" s="6">
+        <v>142449</v>
+      </c>
+      <c r="C80" s="6">
+        <v>19841</v>
+      </c>
+      <c r="D80" s="6">
+        <v>19334</v>
+      </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:4">
       <c r="A81" s="14">
         <v>42784</v>
       </c>
+      <c r="B81" s="6">
+        <v>141951</v>
+      </c>
+      <c r="C81" s="6">
+        <v>17872</v>
+      </c>
+      <c r="D81" s="6">
+        <v>17330</v>
+      </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:4">
       <c r="A82" s="14">
         <v>42785</v>
       </c>
+      <c r="B82" s="6">
+        <v>129946</v>
+      </c>
+      <c r="C82" s="6">
+        <v>17198</v>
+      </c>
+      <c r="D82" s="6">
+        <v>16353</v>
+      </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:4">
       <c r="A83" s="14">
         <v>42786</v>
       </c>
+      <c r="B83" s="6">
+        <v>136650</v>
+      </c>
+      <c r="C83" s="6">
+        <v>20056</v>
+      </c>
+      <c r="D83" s="6">
+        <v>19582</v>
+      </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:4">
       <c r="A84" s="14">
         <v>42787</v>
       </c>
+      <c r="B84" s="6">
+        <v>138130</v>
+      </c>
+      <c r="C84" s="6">
+        <v>20679</v>
+      </c>
+      <c r="D84" s="6">
+        <v>20218</v>
+      </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:4">
       <c r="A85" s="14">
         <v>42788</v>
       </c>
+      <c r="B85" s="6">
+        <v>154186</v>
+      </c>
+      <c r="C85" s="6">
+        <v>20701</v>
+      </c>
+      <c r="D85" s="6">
+        <v>20253</v>
+      </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="14"/>
+    <row r="86" spans="1:4">
+      <c r="A86" s="14">
+        <v>42789</v>
+      </c>
+      <c r="B86" s="6">
+        <v>157557</v>
+      </c>
+      <c r="C86" s="6">
+        <v>20032</v>
+      </c>
+      <c r="D86" s="6">
+        <v>19622</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="14">
+        <v>42790</v>
+      </c>
+      <c r="B87" s="6">
+        <v>160551</v>
+      </c>
+      <c r="C87" s="6">
+        <v>21902</v>
+      </c>
+      <c r="D87" s="6">
+        <v>21465</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/dida/code/doc/我的日历留存.xlsx
+++ b/dida/code/doc/我的日历留存.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="27版本" sheetId="2" r:id="rId2"/>
     <sheet name="0002" sheetId="3" r:id="rId3"/>
     <sheet name="0003" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -4622,7 +4622,7 @@
   <sheetPr/>
   <dimension ref="A1:CK210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="K60" sqref="A1:CK87"/>
     </sheetView>
   </sheetViews>
@@ -26222,8 +26222,8 @@
   <sheetPr/>
   <dimension ref="A1:CC41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:CC41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
